--- a/backend/uploads/employees.xlsx
+++ b/backend/uploads/employees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="242">
   <si>
     <t xml:space="preserve">ANAND</t>
   </si>
@@ -28,10 +28,7 @@
     <t xml:space="preserve">BABU B</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANEPALYA</t>
+    <t xml:space="preserve">EA190101</t>
   </si>
   <si>
     <t xml:space="preserve">ANE</t>
@@ -52,10 +49,7 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BILEKAHALLI</t>
+    <t xml:space="preserve">EA190102</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010060</t>
@@ -67,7 +61,7 @@
     <t xml:space="preserve">AC</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190103</t>
+    <t xml:space="preserve">EA190103</t>
   </si>
   <si>
     <t xml:space="preserve">BRG</t>
@@ -85,7 +79,7 @@
     <t xml:space="preserve">KUMAR D</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190104</t>
+    <t xml:space="preserve">EA190104</t>
   </si>
   <si>
     <t xml:space="preserve">COUNTER SALES</t>
@@ -100,10 +94,7 @@
     <t xml:space="preserve">B NAGENVAR</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMANAHALLI</t>
+    <t xml:space="preserve">EA190105</t>
   </si>
   <si>
     <t xml:space="preserve">SECTOR HEAD</t>
@@ -118,7 +109,7 @@
     <t xml:space="preserve">HG</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190106</t>
+    <t xml:space="preserve">EA190106</t>
   </si>
   <si>
     <t xml:space="preserve">BOM</t>
@@ -136,7 +127,7 @@
     <t xml:space="preserve">AN</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190107</t>
+    <t xml:space="preserve">EA190107</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010004</t>
@@ -145,7 +136,7 @@
     <t xml:space="preserve">RADHA</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190108</t>
+    <t xml:space="preserve">EA190108</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010078</t>
@@ -157,10 +148,7 @@
     <t xml:space="preserve">REDDY BH</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHITRADURGA</t>
+    <t xml:space="preserve">EA190109</t>
   </si>
   <si>
     <t xml:space="preserve">CHD</t>
@@ -175,7 +163,7 @@
     <t xml:space="preserve">BT</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190110</t>
+    <t xml:space="preserve">EA190110</t>
   </si>
   <si>
     <t xml:space="preserve">SALES COUNTER</t>
@@ -190,7 +178,7 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190111</t>
+    <t xml:space="preserve">EA190111</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010014</t>
@@ -202,10 +190,7 @@
     <t xml:space="preserve">CHARLES</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEAD OFFICE, H SIDDIAH ROAD</t>
+    <t xml:space="preserve">EA190112</t>
   </si>
   <si>
     <t xml:space="preserve">BNG</t>
@@ -223,7 +208,7 @@
     <t xml:space="preserve">KUMAR K</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190113</t>
+    <t xml:space="preserve">EA190113</t>
   </si>
   <si>
     <t xml:space="preserve">DRIVER</t>
@@ -238,7 +223,7 @@
     <t xml:space="preserve">TN</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190114</t>
+    <t xml:space="preserve">EA190114</t>
   </si>
   <si>
     <t xml:space="preserve">ASST. INCHARGE WAREHOUSE</t>
@@ -253,7 +238,7 @@
     <t xml:space="preserve">H</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190115</t>
+    <t xml:space="preserve">EA190115</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010002</t>
@@ -262,7 +247,7 @@
     <t xml:space="preserve">RAMANJANEYA</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190116</t>
+    <t xml:space="preserve">EA190116</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010010</t>
@@ -274,7 +259,7 @@
     <t xml:space="preserve">RK</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190117</t>
+    <t xml:space="preserve">EA190117</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010016</t>
@@ -286,7 +271,7 @@
     <t xml:space="preserve">SHANKAR NV</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190118</t>
+    <t xml:space="preserve">EA190118</t>
   </si>
   <si>
     <t xml:space="preserve">MANAGER</t>
@@ -301,7 +286,7 @@
     <t xml:space="preserve">AS</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190119</t>
+    <t xml:space="preserve">EA190119</t>
   </si>
   <si>
     <t xml:space="preserve">CASHIER</t>
@@ -313,7 +298,7 @@
     <t xml:space="preserve">CHANDRAPPA</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190120</t>
+    <t xml:space="preserve">EA190120</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010044</t>
@@ -325,7 +310,7 @@
     <t xml:space="preserve">MURTHY R</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190121</t>
+    <t xml:space="preserve">EA190121</t>
   </si>
   <si>
     <t xml:space="preserve">OPERATION PARTS MANAGER</t>
@@ -340,7 +325,7 @@
     <t xml:space="preserve">KP</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190122</t>
+    <t xml:space="preserve">EA190122</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010040</t>
@@ -352,7 +337,7 @@
     <t xml:space="preserve">KUMAR SL</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190123</t>
+    <t xml:space="preserve">EA190123</t>
   </si>
   <si>
     <t xml:space="preserve">ACCOUNTANT</t>
@@ -367,7 +352,7 @@
     <t xml:space="preserve">KUMARAE</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190124</t>
+    <t xml:space="preserve">EA190124</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010027</t>
@@ -376,7 +361,7 @@
     <t xml:space="preserve">LAKSHMI</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190125</t>
+    <t xml:space="preserve">EA190125</t>
   </si>
   <si>
     <t xml:space="preserve">Jr.ACCOUNTANT</t>
@@ -391,7 +376,7 @@
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190126</t>
+    <t xml:space="preserve">EA190126</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010077</t>
@@ -403,7 +388,7 @@
     <t xml:space="preserve">SN</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190127</t>
+    <t xml:space="preserve">EA190127</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010031</t>
@@ -412,7 +397,7 @@
     <t xml:space="preserve">SHIVANANDA</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190128</t>
+    <t xml:space="preserve">EA190128</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010005</t>
@@ -424,7 +409,7 @@
     <t xml:space="preserve">R GOWDA</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190129</t>
+    <t xml:space="preserve">EA190129</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010052</t>
@@ -436,10 +421,7 @@
     <t xml:space="preserve">R</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KENGERI</t>
+    <t xml:space="preserve">EA190130</t>
   </si>
   <si>
     <t xml:space="preserve">KEN</t>
@@ -457,7 +439,7 @@
     <t xml:space="preserve">HK</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190131</t>
+    <t xml:space="preserve">EA190131</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010064</t>
@@ -472,10 +454,7 @@
     <t xml:space="preserve">HD</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KONANKUNTE</t>
+    <t xml:space="preserve">EA190132</t>
   </si>
   <si>
     <t xml:space="preserve">KNT</t>
@@ -490,7 +469,7 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190133</t>
+    <t xml:space="preserve">EA190133</t>
   </si>
   <si>
     <t xml:space="preserve">STORES INCHARGE</t>
@@ -505,7 +484,7 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190134</t>
+    <t xml:space="preserve">EA190134</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010073</t>
@@ -517,10 +496,7 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLD CHANDAPURA</t>
+    <t xml:space="preserve">EA190135</t>
   </si>
   <si>
     <t xml:space="preserve">CUR</t>
@@ -532,7 +508,7 @@
     <t xml:space="preserve">SURESH</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190136</t>
+    <t xml:space="preserve">EA190136</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010021</t>
@@ -544,10 +520,7 @@
     <t xml:space="preserve">HJ</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMANAGARA</t>
+    <t xml:space="preserve">EA190137</t>
   </si>
   <si>
     <t xml:space="preserve">VKN</t>
@@ -562,7 +535,7 @@
     <t xml:space="preserve">GK</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190138</t>
+    <t xml:space="preserve">EA190138</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010068</t>
@@ -574,10 +547,7 @@
     <t xml:space="preserve">RAO MN</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUMKUR</t>
+    <t xml:space="preserve">EA190139</t>
   </si>
   <si>
     <t xml:space="preserve">KER</t>
@@ -592,7 +562,7 @@
     <t xml:space="preserve">MOHAN BN</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190140</t>
+    <t xml:space="preserve">EA190140</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010017</t>
@@ -604,7 +574,7 @@
     <t xml:space="preserve">AHMED</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190141</t>
+    <t xml:space="preserve">EA190141</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010007</t>
@@ -616,7 +586,7 @@
     <t xml:space="preserve">KUMAR</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190142</t>
+    <t xml:space="preserve">EA190142</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010032</t>
@@ -625,10 +595,7 @@
     <t xml:space="preserve">SAGAR</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YADAMADU</t>
+    <t xml:space="preserve">EA190143</t>
   </si>
   <si>
     <t xml:space="preserve">RNA</t>
@@ -640,7 +607,7 @@
     <t xml:space="preserve">JAGADHEESH</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190144</t>
+    <t xml:space="preserve">EA190144</t>
   </si>
   <si>
     <t xml:space="preserve">ASST. INCHARGE</t>
@@ -652,7 +619,7 @@
     <t xml:space="preserve">DEVARAJU</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190145</t>
+    <t xml:space="preserve">EA190145</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010066</t>
@@ -664,7 +631,7 @@
     <t xml:space="preserve">UMESHA</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190146</t>
+    <t xml:space="preserve">EA190146</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010053</t>
@@ -676,7 +643,7 @@
     <t xml:space="preserve">NAYAKA</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190147</t>
+    <t xml:space="preserve">EA190147</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010056</t>
@@ -688,7 +655,7 @@
     <t xml:space="preserve">KUMAR M</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190148</t>
+    <t xml:space="preserve">EA190148</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010065</t>
@@ -703,7 +670,7 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190149</t>
+    <t xml:space="preserve">EA190149</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010071</t>
@@ -712,7 +679,7 @@
     <t xml:space="preserve">MURTHY</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190150</t>
+    <t xml:space="preserve">EA190150</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010074</t>
@@ -724,10 +691,7 @@
     <t xml:space="preserve">T</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K R ROAD</t>
+    <t xml:space="preserve">EA190151</t>
   </si>
   <si>
     <t xml:space="preserve">YED</t>
@@ -742,7 +706,7 @@
     <t xml:space="preserve">KUMA RC</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190152</t>
+    <t xml:space="preserve">EA190152</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010019</t>
@@ -754,7 +718,7 @@
     <t xml:space="preserve">PASHA</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190153</t>
+    <t xml:space="preserve">EA190153</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010063</t>
@@ -769,7 +733,7 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190154</t>
+    <t xml:space="preserve">EA190154</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010051</t>
@@ -778,7 +742,7 @@
     <t xml:space="preserve">LIKHITH</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 190155</t>
+    <t xml:space="preserve">EA190155</t>
   </si>
   <si>
     <t xml:space="preserve">BGBNG15556920000010046</t>
@@ -1005,23 +969,23 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="5.53571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="5.39795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="3" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,78 +998,69 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="5" t="n">
         <v>101068099023</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>101172172247</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>101068099006</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>5344907598</v>
@@ -1113,28 +1068,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>101029391289</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>5344791533</v>
@@ -1142,84 +1094,75 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>101068098930</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>101305638446</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>101028779105</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>5344790854</v>
@@ -1227,55 +1170,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>100730677943</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>101029390649</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>5344791388</v>
@@ -1283,28 +1220,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>101029390654</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>5344791471</v>
@@ -1312,28 +1246,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>101029390677</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>5344791514</v>
@@ -1341,57 +1272,51 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>101068099052</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>101068099034</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>5344900788</v>
@@ -1399,28 +1324,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>101028777078</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>5344790471</v>
@@ -1428,28 +1350,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>101028779082</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>5344790779</v>
@@ -1457,26 +1376,23 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>101029390631</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>5344791374</v>
@@ -1484,28 +1400,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>101029391291</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>5344791622</v>
@@ -1513,231 +1426,207 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>101068098995</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>101068099010</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>101068099081</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>101068096528</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>101068099047</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>101068099075</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>101068096516</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>101134952662</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>5345110886</v>
@@ -1745,84 +1634,75 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>101337480877</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>101068098953</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>101028779114</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>5344790861</v>
@@ -1830,28 +1710,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>101172172172</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>5345240174</v>
@@ -1859,115 +1736,103 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>100472932765</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>101188857470</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>101217924360</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>100747067773</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>5345240164</v>
@@ -1975,84 +1840,75 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>101290907606</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>101029391355</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>101029391340</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>5344791889</v>
@@ -2060,28 +1916,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>101028779095</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>5344790790</v>
@@ -2089,86 +1942,77 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>100661874039</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>101068096494</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>101029391301</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>5344791648</v>
@@ -2176,113 +2020,101 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>101029390608</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>101068098969</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>101114531218</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>101068096500</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>5344907655</v>
@@ -2290,53 +2122,47 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>101188938294</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>101172172186</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>5345240209</v>
@@ -2344,28 +2170,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>101172172210</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>5345240216</v>
@@ -2373,138 +2196,123 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>101188857489</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>101217924387</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="I49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B50" s="0"/>
       <c r="C50" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>101290907610</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>101068096473</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>101029391329</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>5344791745</v>
@@ -2512,86 +2320,77 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>101188857462</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>101172172164</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>101114531225</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>5345042037</v>
